--- a/Game Jam 2016.xlsx
+++ b/Game Jam 2016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreas.ecker\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreas.ecker\cyb-orcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9972" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Räume" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>-</t>
   </si>
@@ -140,15 +140,6 @@
     <t>Abgebaute Goldmenge alle 7,5 Sekunden</t>
   </si>
   <si>
-    <t>Heilt 1 HP pro 1/4 Sekunde</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>((n-1)²+n-1)*30</t>
-  </si>
-  <si>
     <t>n+3</t>
   </si>
   <si>
@@ -164,15 +155,9 @@
     <t>Your orks will perform savage rituals to generate gold for your evilness.</t>
   </si>
   <si>
-    <t>This is your ritual room. It enables you to manifest your will in this world. Protect it at any means or you will lose the control over this realm.</t>
-  </si>
-  <si>
     <t>Your orks can gather gold faster in a gold mine then in the ritual room.</t>
   </si>
   <si>
-    <t>If your orks are idling you could send them into a training room to prepare for the next battle.</t>
-  </si>
-  <si>
     <t>Perform dark voodoo rituals to harm your enemies from the distance.</t>
   </si>
   <si>
@@ -251,9 +236,6 @@
     <t>Your orks are wounded. We could let them die or build a butchery where they can regain their strength.</t>
   </si>
   <si>
-    <t>The orks defile your ritual room by sleeping in it. Let them build a den where there is enough stone floor for everyone.</t>
-  </si>
-  <si>
     <t>1 + Tag * 0,10 abgerundet</t>
   </si>
   <si>
@@ -291,6 +273,24 @@
   </si>
   <si>
     <t>Gold Income</t>
+  </si>
+  <si>
+    <t>Level = SQRT(XP/30+0,25)+0,5</t>
+  </si>
+  <si>
+    <t>Heilt 4 HP pro Sekunde</t>
+  </si>
+  <si>
+    <t>This is your temple. It enables you to manifest your will in this world. Protect it at any means or you will lose the control over this realm.</t>
+  </si>
+  <si>
+    <t>The orks defile your temple by sleeping in it. Let them build a den where there is enough stone floor for everyone.</t>
+  </si>
+  <si>
+    <t>If your orks are idling you could send them into a gym to prepare for the next battle.</t>
+  </si>
+  <si>
+    <t>(level²-level)*30</t>
   </si>
 </sst>
 </file>
@@ -329,14 +329,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -344,6 +340,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -626,13 +627,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.109375" bestFit="1" customWidth="1"/>
@@ -651,7 +652,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -660,12 +661,12 @@
         <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -679,7 +680,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -688,12 +689,12 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -707,7 +708,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -721,7 +722,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -737,111 +738,111 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -874,21 +875,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -896,13 +897,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -910,13 +911,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -924,13 +925,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -938,13 +939,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -952,13 +953,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -968,15 +969,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" hidden="1" customWidth="1"/>
@@ -985,7 +987,7 @@
     <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1038,8 +1040,9 @@
       <c r="H2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1066,8 +1069,9 @@
       <c r="H3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1094,8 +1098,9 @@
       <c r="H4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1122,8 +1127,9 @@
       <c r="H5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1151,99 +1157,99 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1263,54 +1269,54 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1329,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,46 +1339,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1382,7 +1391,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
